--- a/Bracel_inter.xlsx
+++ b/Bracel_inter.xlsx
@@ -2412,14 +2412,14 @@
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45015.99998842592</v>
+        <v>45545.99998842592</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>45545.99998842592</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>B1.1</t>
+          <t>A2.1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3742,14 +3742,14 @@
         </is>
       </c>
       <c r="B88" s="2" t="n">
-        <v>45349.99998842592</v>
+        <v>45496.99998842592</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>45496.99998842592</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>B2.2</t>
+          <t>B1.1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
